--- a/test_xlsx_BDC_1.xlsx
+++ b/test_xlsx_BDC_1.xlsx
@@ -107,7 +107,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -166,83 +166,40 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
-        <v>61536</v>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>ED026HN</t>
-        </is>
+        <v>71042</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7197755</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>YANNICK JAMES</t>
+          <t>GLINCHE AUTOMOBILES</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>12900.00</v>
+        <v>17604</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>12900.00</v>
+        <v>21124.8</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Ismael SAHRI </t>
+          <t>GUILLAUME HONNERT </t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>2019/05/11</t>
+          <t>2021/01/19</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>VENTE PARTICULIER</t>
+          <t>VENTE MARCHAND</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>UU1HSDCW654790913</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
-        <v>61536</v>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>ED026HN</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>YANNICK JAMES</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>329.76</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>329.76</v>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>Ismael SAHRI </t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>2019/05/11</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>VENTE PARTICULIER</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>UU1HSDCW654790913</t>
+          <t>VF1FL000467197755</t>
         </is>
       </c>
     </row>
